--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B3EA05-346F-4A83-863E-5B4ACE64DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9212C4B5-5C14-4520-BB3C-BEA9D25EFE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -940,6 +940,9 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Unclear</t>
+  </si>
+  <si>
     <t>1405.HK</t>
   </si>
   <si>
@@ -956,9 +959,6 @@
   </si>
   <si>
     <t>Strongly disagree</t>
-  </si>
-  <si>
-    <t>Unclear</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,15 +3641,15 @@
         <v>130481963</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
         <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3711,7 +3713,7 @@
         <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3738,7 +3740,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4564,11 +4566,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4582,10 +4584,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4780,7 +4782,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4816,8 +4818,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4860,17 +4862,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.599999999999994</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4880,40 +4882,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>10125.400328799999</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>1928.523378297557</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4936,11 +4938,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4960,7 +4962,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5143,7 +5145,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.0436935615503904E-2</v>
+        <v>-5.1047605182212331E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,10 +5196,10 @@
       <c r="F28" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="270" t="s">
+      <c r="G28" s="271" t="s">
         <v>260</v>
       </c>
-      <c r="H28" s="270"/>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5216,11 +5218,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="271">
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="271"/>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6251,12 +6253,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -11444,11 +11443,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11459,11 +11458,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11475,11 +11474,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11693,19 +11692,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11715,18 +11714,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12093,17 +12092,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0436935615503904E-2</v>
+        <v>-5.1047605182212331E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0436935615503904E-2</v>
+        <v>-5.1047605182212331E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0436935615503904E-2</v>
+        <v>-5.1047605182212331E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12185,15 +12184,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12214,14 +12213,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-10.673813572682102</v>
+        <v>-8.0637941580354386</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-10.673813572682102</v>
+        <v>-8.0637941580354386</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12289,21 +12288,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-692437.99973226001</v>
+        <v>-523119.26370283077</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.3067717852486629</v>
+        <v>-4.0091308536094816</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.3067717852486629</v>
+        <v>-4.0091308536094816</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5395545269090034</v>
+        <v>-5.6959413179071827</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12352,7 +12351,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-692437.99973226001</v>
+        <v>-523119.26370283077</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9212C4B5-5C14-4520-BB3C-BEA9D25EFE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D99C3CB-D282-43C3-8C2E-8FF4078CDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -941,6 +938,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1405.HK</t>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>262</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>263</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>264</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>130481963</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>265</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>266</v>
@@ -3692,16 +3696,16 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>267</v>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>267</v>
@@ -3719,28 +3723,28 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>54645</v>
@@ -4115,7 +4119,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0</v>
@@ -4133,7 +4137,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4182,13 +4186,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4530,7 +4534,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4548,7 +4552,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4556,26 +4560,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4584,10 +4588,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4636,7 +4640,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4657,7 +4661,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4675,7 +4679,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4732,7 +4736,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4819,7 +4823,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4860,19 +4864,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>77.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4880,42 +4884,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1928.523378297557</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>10171.06901585</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4938,16 +4942,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4962,7 +4966,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4972,40 +4976,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5018,29 +5022,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5050,12 +5054,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5065,7 +5069,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5073,7 +5077,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5087,7 +5091,7 @@
         <v>0.8448760372568398</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5095,7 +5099,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5106,14 +5110,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5125,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5141,16 +5145,16 @@
         <v>1.7912194354438221E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-5.1047605182212331E-2</v>
+        <v>261</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>-96.227845510400371</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5173,7 +5177,7 @@
         <v>-4.3026634739724949E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5194,12 +5198,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5218,31 +5222,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="272">
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="272"/>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5252,7 +5256,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5263,14 +5267,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5280,7 +5284,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5290,14 +5294,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5307,7 +5311,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5322,14 +5326,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6314,16 +6318,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6341,7 +6345,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6374,7 +6378,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6741,7 +6745,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6792,7 +6796,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6843,7 +6847,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6894,7 +6898,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6996,7 +7000,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7149,7 +7153,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8220,7 +8224,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8289,7 +8293,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8493,7 +8497,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10391,7 +10395,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11443,11 +11447,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11458,11 +11462,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11474,11 +11478,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11692,19 +11696,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11714,18 +11718,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11802,7 +11806,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11862,7 +11866,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11925,7 +11929,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11955,7 +11959,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12088,28 +12092,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-5.1047605182212331E-2</v>
+        <v>-1.0392002384506461E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-5.1047605182212331E-2</v>
+        <v>-1.0392002384506461E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-5.1047605182212331E-2</v>
+        <v>-1.0392002384506461E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12139,7 +12143,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12184,15 +12188,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12209,24 +12213,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-8.0637941580354386</v>
+        <v>-10.678219476537496</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-8.0637941580354386</v>
+        <v>-10.678219476537496</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12234,14 +12238,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12264,14 +12268,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12288,21 +12292,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-523119.26370283077</v>
+        <v>-692723.82215475861</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-4.0091308536094816</v>
+        <v>-5.308962298143526</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-4.0091308536094816</v>
+        <v>-5.308962298143526</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-5.6959413179071827</v>
+        <v>-7.5426666809795107</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12351,7 +12355,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-523119.26370283077</v>
+        <v>-692723.82215475861</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12388,14 +12392,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12442,21 +12446,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12469,7 +12473,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D99C3CB-D282-43C3-8C2E-8FF4078CDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AB84BB-3D07-4EFE-AD1E-42B232CA00E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45603</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>130481963</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>3050715</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>2577476</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>549856</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>54645</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151"/>
       <c r="D30" s="151"/>
@@ -3911,7 +3912,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3927,7 +3928,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3943,7 +3944,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3959,7 +3960,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3975,7 +3976,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -3991,7 +3992,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4007,7 +4008,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4023,7 +4024,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4039,7 +4040,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4055,7 +4056,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4071,7 +4072,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4103,7 +4104,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0</v>
@@ -4137,7 +4138,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4186,21 +4187,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4210,7 +4211,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4220,7 +4221,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4231,7 +4232,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4241,7 +4242,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4251,7 +4252,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4262,7 +4263,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4272,7 +4273,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4283,7 +4284,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4291,24 +4292,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4319,7 +4320,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4330,7 +4331,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4341,7 +4342,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4352,7 +4353,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4363,7 +4364,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4374,7 +4375,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4384,31 +4385,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4416,12 +4417,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4432,7 +4433,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4443,7 +4444,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4453,7 +4454,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4464,7 +4465,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4474,85 +4475,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4560,15 +4561,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4576,10 +4577,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4589,19 +4590,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4619,7 +4620,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4640,7 +4641,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4661,7 +4662,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4679,7 +4680,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4700,7 +4701,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4736,7 +4737,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4864,7 +4865,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4876,15 +4877,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.95</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4893,7 +4894,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4904,7 +4905,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4913,11 +4914,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>10171.06901585</v>
+        <v>10321.1232733</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4925,7 +4926,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4940,7 +4941,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4951,7 +4952,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4963,10 +4964,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4976,40 +4977,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5022,29 +5023,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5054,12 +5055,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5069,29 +5070,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.8448760372568398</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5099,7 +5100,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5110,26 +5111,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5138,30 +5139,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-96.227845510400371</v>
+        <v>-97.758762826806105</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5170,14 +5171,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>-4.3026634739724949E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5188,26 +5189,26 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5232,21 +5233,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5256,7 +5257,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5267,14 +5268,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5284,7 +5285,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5294,14 +5295,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5311,7 +5312,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5326,14 +5327,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6313,21 +6314,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6338,14 +6339,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6367,7 +6368,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6378,7 +6379,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6389,7 +6390,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6439,7 +6440,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6490,7 +6491,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6541,7 +6542,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6592,7 +6593,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6643,7 +6644,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6694,7 +6695,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6745,7 +6746,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6796,7 +6797,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6847,7 +6848,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6898,7 +6899,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6949,7 +6950,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7000,7 +7001,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7051,7 +7052,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7102,7 +7103,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7153,7 +7154,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7204,7 +7205,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7255,7 +7256,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7306,7 +7307,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7357,7 +7358,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7408,7 +7409,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7459,7 +7460,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7510,7 +7511,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7561,7 +7562,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7612,7 +7613,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7663,7 +7664,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7714,7 +7715,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7765,7 +7766,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7816,7 +7817,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7867,7 +7868,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7918,7 +7919,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7969,7 +7970,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8020,7 +8021,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8071,7 +8072,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8122,7 +8123,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8173,7 +8174,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8224,7 +8225,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8242,7 +8243,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8293,7 +8294,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8344,7 +8345,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8395,7 +8396,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8446,7 +8447,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8497,7 +8498,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8548,7 +8549,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8599,7 +8600,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8617,7 +8618,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8668,7 +8669,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8719,7 +8720,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8736,7 +8737,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8786,7 +8787,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8836,7 +8837,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8886,7 +8887,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10245,7 +10246,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10255,12 +10256,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10274,7 +10275,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10284,7 +10285,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10302,10 +10303,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10315,7 +10316,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10329,7 +10330,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10340,7 +10341,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10352,7 +10353,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10370,7 +10371,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10389,32 +10390,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10431,7 +10432,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10442,7 +10443,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10459,7 +10460,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10470,7 +10471,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10487,7 +10488,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10498,7 +10499,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10515,7 +10516,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10526,7 +10527,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10543,7 +10544,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10553,7 +10554,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10575,7 +10576,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10597,7 +10598,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10618,7 +10619,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10643,7 +10644,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10670,7 +10671,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10691,7 +10692,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10708,7 +10709,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10720,13 +10721,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10748,7 +10749,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10768,7 +10769,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10777,7 +10778,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10797,7 +10798,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10810,7 +10811,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10830,7 +10831,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10843,7 +10844,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10860,7 +10861,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10876,7 +10877,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10885,7 +10886,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10901,7 +10902,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10911,7 +10912,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10928,7 +10929,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10938,7 +10939,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10955,7 +10956,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10965,7 +10966,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10985,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -10995,7 +10996,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11012,7 +11013,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11022,7 +11023,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11048,7 +11049,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11075,7 +11076,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11102,7 +11103,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11123,7 +11124,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11144,7 +11145,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11165,7 +11166,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11186,7 +11187,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11203,7 +11204,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11221,7 +11222,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11240,7 +11241,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11259,7 +11260,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11276,7 +11277,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11289,7 +11290,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11306,7 +11307,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11319,7 +11320,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11336,7 +11337,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11346,7 +11347,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11363,7 +11364,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11379,14 +11380,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11398,12 +11399,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11433,7 +11434,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11444,7 +11445,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11459,7 +11460,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11470,12 +11471,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11499,11 +11500,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11513,7 +11514,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11534,7 +11535,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11555,7 +11556,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11576,7 +11577,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11591,7 +11592,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11622,11 +11623,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11636,7 +11637,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11657,7 +11658,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11672,7 +11673,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11694,7 +11695,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11702,15 +11703,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11719,22 +11720,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11755,7 +11756,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11785,7 +11786,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11806,7 +11807,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11836,7 +11837,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11866,7 +11867,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11897,7 +11898,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11924,12 +11925,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11959,7 +11960,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11989,7 +11990,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12019,7 +12020,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12040,7 +12041,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12071,7 +12072,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12092,28 +12093,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0392002384506461E-2</v>
+        <v>-1.0229262023002948E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0392002384506461E-2</v>
+        <v>-1.0229262023002948E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0392002384506461E-2</v>
+        <v>-1.0229262023002948E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12143,7 +12144,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12174,27 +12175,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12213,24 +12214,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-10.678219476537496</v>
+        <v>-10.674839162336376</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-10.678219476537496</v>
+        <v>-10.674839162336376</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12238,14 +12239,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12268,51 +12269,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-692723.82215475861</v>
+        <v>-692504.53239595285</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.308962298143526</v>
+        <v>-5.3072816845647308</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.308962298143526</v>
+        <v>-5.3072816845647308</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5426666809795107</v>
+        <v>-7.5402789623760444</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12330,7 +12331,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12351,11 +12352,11 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-692723.82215475861</v>
+        <v>-692504.53239595285</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12385,34 +12386,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12446,34 +12447,34 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12506,7 +12507,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AB84BB-3D07-4EFE-AD1E-42B232CA00E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE3BF8C-37DF-42D9-908F-E51C29A803D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4787,7 +4787,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>79.099999999999994</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>10321.1232733</v>
+        <v>10327.647371450001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.758762826806105</v>
+        <v>-97.823598289965432</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12097,17 +12097,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0229262023002948E-2</v>
+        <v>-1.0222482279130987E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0229262023002948E-2</v>
+        <v>-1.0222482279130987E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0229262023002948E-2</v>
+        <v>-1.0222482279130987E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-10.674839162336376</v>
+        <v>-10.674872909714718</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-10.674839162336376</v>
+        <v>-10.674872909714718</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12293,21 +12293,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-692504.53239595285</v>
+        <v>-692506.72167600691</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.3072816845647308</v>
+        <v>-5.30729846297612</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.3072816845647308</v>
+        <v>-5.30729846297612</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5402789623760444</v>
+        <v>-7.5403028001728556</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-692504.53239595285</v>
+        <v>-692506.72167600691</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE3BF8C-37DF-42D9-908F-E51C29A803D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D71E7B-40DE-47B0-ACE0-3DE5C2E91800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>79.150000000000006</v>
+        <v>79.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>10327.647371450001</v>
+        <v>10340.695567749999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.823598289965432</v>
+        <v>-97.938056853741216</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12097,17 +12097,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0222482279130987E-2</v>
+        <v>-1.0210535435610903E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0222482279130987E-2</v>
+        <v>-1.0210535435610903E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0222482279130987E-2</v>
+        <v>-1.0210535435610903E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-10.674872909714718</v>
+        <v>-10.676512808851381</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-10.674872909714718</v>
+        <v>-10.676512808851381</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12293,21 +12293,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-692506.72167600691</v>
+        <v>-692613.106190803</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.30729846297612</v>
+        <v>-5.3081137826751048</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.30729846297612</v>
+        <v>-5.3081137826751048</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5403028001728556</v>
+        <v>-7.5414611592612273</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-692506.72167600691</v>
+        <v>-692613.106190803</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D71E7B-40DE-47B0-ACE0-3DE5C2E91800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6078A136-26BC-43CD-A287-FBD94B639313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.938056853741216</v>
+        <v>-97.941101366513763</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12097,17 +12097,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0210535435610903E-2</v>
+        <v>-1.0210218039695251E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0210535435610903E-2</v>
+        <v>-1.0210218039695251E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0210535435610903E-2</v>
+        <v>-1.0210218039695251E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-10.676512808851381</v>
+        <v>-10.676198045636774</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-10.676512808851381</v>
+        <v>-10.676198045636774</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12293,21 +12293,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-692613.106190803</v>
+        <v>-692592.68668382661</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.3081137826751048</v>
+        <v>-5.3079572897276739</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.3081137826751048</v>
+        <v>-5.3079572897276739</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5414611592612273</v>
+        <v>-7.5412388231295875</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-692613.106190803</v>
+        <v>-692592.68668382661</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6078A136-26BC-43CD-A287-FBD94B639313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10624710-55BC-4738-A32E-21436FEF892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4579,7 +4579,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.941101366513763</v>
+        <v>-97.944146068576288</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12097,17 +12097,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0210218039695251E-2</v>
+        <v>-1.0209900643779598E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0210218039695251E-2</v>
+        <v>-1.0209900643779598E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0210218039695251E-2</v>
+        <v>-1.0209900643779598E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-10.676198045636774</v>
+        <v>-10.675883281379885</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-10.676198045636774</v>
+        <v>-10.675883281379885</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12293,21 +12293,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-692592.68668382661</v>
+        <v>-692572.26710923482</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.3079572897276739</v>
+        <v>-5.3078007962620459</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.3079572897276739</v>
+        <v>-5.3078007962620459</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5412388231295875</v>
+        <v>-7.5410164862617215</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-692592.68668382661</v>
+        <v>-692572.26710923482</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10624710-55BC-4738-A32E-21436FEF892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A3492F-D207-4152-BCC2-5E374EC85DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5016,7 +5016,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5063,7 +5063,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.944146068576288</v>
+        <v>-97.947190959946425</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12097,17 +12097,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0209900643779598E-2</v>
+        <v>-1.0209583247863946E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0209900643779598E-2</v>
+        <v>-1.0209583247863946E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0209900643779598E-2</v>
+        <v>-1.0209583247863946E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-10.675883281379885</v>
+        <v>-11.13972366895378</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-10.675883281379885</v>
+        <v>-11.13972366895378</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12293,21 +12293,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-692572.26710923482</v>
+        <v>-722662.7973568975</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.3078007962620459</v>
+        <v>-5.5384114458555276</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.3078007962620459</v>
+        <v>-5.5384114458555276</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5410164862617215</v>
+        <v>-7.9796876466876885</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-692572.26710923482</v>
+        <v>-722662.7973568975</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A3492F-D207-4152-BCC2-5E374EC85DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D011AC77-2524-490B-938B-0089A0DD1815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45603</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>130481963</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,385 +3806,385 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>3050715</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>2020789</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>2577476</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>1776546</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>549856</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>395166</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>54645</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>78321</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
-        <v>0</v>
-      </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="C44" s="250">
+        <v>0</v>
+      </c>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153" t="str">
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4189,10 +4193,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4291,7 +4295,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4303,7 +4307,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4323,7 +4327,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4391,7 +4395,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4403,7 +4407,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4416,7 +4420,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4464,14 +4468,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4555,7 +4559,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4563,19 +4567,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4589,14 +4594,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4608,12 +4613,12 @@
         <f>C25</f>
         <v>3050715</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>3050715</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>3050715</v>
       </c>
@@ -4626,15 +4631,15 @@
         <f>C26</f>
         <v>2577476</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>2577476</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>2577476</v>
       </c>
@@ -4647,15 +4652,15 @@
         <f>C27+C28</f>
         <v>549856</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>549856</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>549856</v>
       </c>
@@ -4668,12 +4673,12 @@
         <f>C29</f>
         <v>54645</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>54645</v>
       </c>
@@ -4686,15 +4691,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4707,12 +4712,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4725,12 +4730,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4739,16 +4744,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4867,17 +4872,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>79.25</v>
+        <v>78.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4887,40 +4892,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10340.695567749999</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>10301.55097885</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4928,11 +4933,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4943,22 +4948,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4987,7 +4992,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4998,7 +5003,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5012,11 +5017,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5025,7 +5030,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5036,7 +5041,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5047,10 +5052,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5062,10 +5067,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5087,14 +5092,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.8448760372568398</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5102,7 +5107,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.18023840312844694</v>
       </c>
@@ -5113,7 +5118,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5125,14 +5130,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5141,30 +5146,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.947190959946425</v>
+        <v>-97.666056397364471</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
@@ -5173,14 +5178,14 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-4.3026634739724949E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -5201,10 +5206,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5223,11 +5228,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="273">
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="273"/>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5239,17 +5244,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5259,7 +5264,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5267,17 +5272,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>Strongly disagree</v>
       </c>
@@ -5287,24 +5292,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5314,7 +5319,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5333,10 +5338,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6318,16 +6323,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6341,11 +6346,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6378,7 +6383,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6442,47 +6447,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3050715</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2020789</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6544,47 +6549,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2577476</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1776546</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6595,47 +6600,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>473239</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>244243</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6646,47 +6651,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>549856</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>395166</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6697,47 +6702,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6748,47 +6753,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200" t="str">
+      <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="200" t="str">
+      <c r="D12" s="199" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6796,50 +6801,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>-7.4685184846117039E-2</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6847,50 +6852,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-76617</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-150923</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6898,50 +6903,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.49234377795299589</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6952,47 +6957,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7003,47 +7008,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>54645</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>78321</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7054,47 +7059,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7105,47 +7110,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7156,47 +7161,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7207,47 +7212,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7258,47 +7263,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-131262</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-229244</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7309,47 +7314,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-8.5082113966376494E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7360,7 +7365,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-98446.5</v>
       </c>
@@ -7408,50 +7413,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.42741358552459391</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7568,43 +7573,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7619,43 +7624,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7670,43 +7675,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7721,43 +7726,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7772,43 +7777,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7823,43 +7828,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7874,43 +7879,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7976,43 +7981,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8027,43 +8032,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8078,43 +8083,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8176,47 +8181,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8245,47 +8250,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.87913483297860395</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8296,47 +8301,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.19555035186751313</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8347,47 +8352,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8398,47 +8403,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>3.8757633775718295E-2</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8449,47 +8454,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8500,47 +8505,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8551,47 +8556,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-0.11344281862183533</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8620,47 +8625,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8671,47 +8676,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8739,47 +8744,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8789,47 +8794,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8839,47 +8844,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-0.41630479499017231</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-0.34164907260386312</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8889,47 +8894,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10227,8 +10232,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10277,7 +10282,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10374,7 +10379,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10421,7 +10426,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10449,7 +10454,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10477,7 +10482,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10505,7 +10510,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10518,7 +10523,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10533,7 +10538,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10560,7 +10565,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10582,7 +10587,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10604,7 +10609,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10625,7 +10630,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10650,7 +10655,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10677,7 +10682,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10698,7 +10703,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10863,7 +10868,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10892,7 +10897,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10918,7 +10923,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10945,7 +10950,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10972,7 +10977,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10988,7 +10993,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11002,7 +11007,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11029,7 +11034,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11055,7 +11060,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11082,7 +11087,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11109,7 +11114,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11130,7 +11135,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11151,7 +11156,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11172,7 +11177,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11193,7 +11198,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11339,7 +11344,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11448,11 +11453,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11463,11 +11468,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11479,11 +11484,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11579,8 +11584,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11660,8 +11665,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11697,19 +11702,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11719,18 +11724,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11741,17 +11746,17 @@
         <f>Data!C6</f>
         <v>3050715</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>3050715</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>3050715</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11762,23 +11767,23 @@
         <f>Data!C8</f>
         <v>2577476</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>2577476</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>2577476</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.8448760372568398</v>
       </c>
@@ -11788,21 +11793,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>473239</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>473239</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>473239</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11813,23 +11818,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>549856</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>549856</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>549856</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.18023840312844694</v>
       </c>
@@ -11843,54 +11848,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>-76617</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>-76617</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>-76617</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
@@ -11904,27 +11909,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11936,23 +11941,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>54645</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>54645</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>54645</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>1.7912194354438221E-2</v>
       </c>
@@ -11966,23 +11971,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11992,27 +11997,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>-131262</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>-131262</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>-131262</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
@@ -12022,49 +12027,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>-3.226997605479371E-2</v>
       </c>
@@ -12074,69 +12079,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0209583247863946E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>-1.0238971827954191E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0209583247863946E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>-1.0238971827954191E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0209583247863946E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>-1.0238971827954191E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -12146,21 +12151,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="210"/>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12182,22 +12187,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12207,9 +12212,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12217,15 +12222,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-11.13972366895378</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>-10.664186542402852</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-11.13972366895378</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>-10.664186542402852</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12233,23 +12238,26 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="K94" s="24"/>
@@ -12271,14 +12279,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12293,21 +12301,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-722662.7973568975</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>-691813.46928261954</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.5384114458555276</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>-5.3019854497638086</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.5384114458555276</v>
+        <v>-5.3019854497638086</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.9796876466876885</v>
+        <v>-7.5327543781872404</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12319,14 +12327,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12337,17 +12345,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12356,7 +12364,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-722662.7973568975</v>
+        <v>-691813.46928261954</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12395,14 +12403,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12456,14 +12464,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D011AC77-2524-490B-938B-0089A0DD1815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52472A84-BBD1-4710-9FB0-0BC4B78C53A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3577,7 +3577,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4570,7 +4570,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4882,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>78.95</v>
+        <v>77</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4923,7 +4925,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10301.55097885</v>
+        <v>10047.111150999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4972,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5018,10 +5020,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5068,7 +5070,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5155,7 +5157,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.666056397364471</v>
+        <v>-95.455436412858901</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12102,17 +12104,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0238971827954191E-2</v>
+        <v>-1.0476092693923182E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0238971827954191E-2</v>
+        <v>-1.0476092693923182E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0238971827954191E-2</v>
+        <v>-1.0476092693923182E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12212,7 +12214,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12223,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-10.664186542402852</v>
+        <v>-10.628917061550414</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-10.664186542402852</v>
+        <v>-10.628917061550414</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,7 +12246,7 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
@@ -12301,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-691813.46928261954</v>
+        <v>-689525.44648675947</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.3019854497638086</v>
+        <v>-5.2844502844179271</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.3019854497638086</v>
+        <v>-5.2844502844179271</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.5327543781872404</v>
+        <v>-6.84503741578202</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12364,7 +12366,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-691813.46928261954</v>
+        <v>-689525.44648675947</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52472A84-BBD1-4710-9FB0-0BC4B78C53A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CB093F-4573-418D-A86D-2491F9DF8DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77</v>
+        <v>78.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10047.111150999999</v>
+        <v>10301.55097885</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4974,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-95.455436412858901</v>
+        <v>-97.74046981013413</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12104,17 +12104,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0476092693923182E-2</v>
+        <v>-1.0231176522299833E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0476092693923182E-2</v>
+        <v>-1.0231176522299833E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0476092693923182E-2</v>
+        <v>-1.0231176522299833E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12225,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-10.628917061550414</v>
+        <v>-10.656487144893008</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-10.628917061550414</v>
+        <v>-10.656487144893008</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12303,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-689525.44648675947</v>
+        <v>-691313.98937559698</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.2844502844179271</v>
+        <v>-5.2981574884461002</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.2844502844179271</v>
+        <v>-5.2981574884461002</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-6.84503741578202</v>
+        <v>-6.8627925879170029</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-689525.44648675947</v>
+        <v>-691313.98937559698</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CB093F-4573-418D-A86D-2491F9DF8DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B551FA-1F14-4106-9919-0633F22430EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1405.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly disagree</t>
@@ -3577,7 +3585,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3606,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3639,7 +3647,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3663,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3695,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3713,7 +3721,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3722,7 +3730,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -4267,7 +4275,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4379,7 +4387,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4884,10 +4892,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>78.95</v>
+        <v>81.7</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4925,7 +4933,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10301.55097885</v>
+        <v>10660.376377100001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4974,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5020,10 +5028,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5070,7 +5078,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5157,7 +5165,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-97.74046981013413</v>
+        <v>-101.09704685494837</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12104,17 +12112,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0231176522299833E-2</v>
+        <v>-9.8914857664910445E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0231176522299833E-2</v>
+        <v>-9.8914857664910445E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0231176522299833E-2</v>
+        <v>-9.8914857664910445E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12214,7 +12222,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12225,14 +12233,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-10.656487144893008</v>
+        <v>-12.709901593614369</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-10.656487144893008</v>
+        <v>-12.709901593614369</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12303,21 +12311,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-691313.98937559698</v>
+        <v>-824524.31610764388</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.2981574884461002</v>
+        <v>-6.3190673802757233</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.2981574884461002</v>
+        <v>-6.3190673802757233</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-6.8627925879170029</v>
+        <v>-8.6301497560853804</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,7 +12374,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-691313.98937559698</v>
+        <v>-824524.31610764388</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B551FA-1F14-4106-9919-0633F22430EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1862C30-B757-4A16-A7B3-0AAF9FC4CF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3584,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3614,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3647,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3663,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +3725,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3730,7 +3734,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -4892,10 +4896,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>81.7</v>
+        <v>81.849999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4933,7 +4937,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10660.376377100001</v>
+        <v>10679.948671549999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4982,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5003,7 +5007,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5014,7 +5018,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5041,7 +5045,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5165,7 +5169,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-101.09704685494837</v>
+        <v>-101.35836430055662</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,8 +5279,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6302,12 +6306,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8733,118 +8737,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8852,107 +8857,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-0.41630479499017231</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-0.34164907260386312</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-0.41630479499017231</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-0.34164907260386312</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9520,7 +9572,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10203,6 +10257,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12112,17 +12167,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8914857664910445E-3</v>
+        <v>-9.8659839955064117E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8914857664910445E-3</v>
+        <v>-9.8659839955064117E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8914857664910445E-3</v>
+        <v>-9.8659839955064117E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12233,14 +12288,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.709901593614369</v>
+        <v>-12.702044221517314</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.709901593614369</v>
+        <v>-12.702044221517314</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12311,21 +12366,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-824524.31610764388</v>
+        <v>-824014.58797898691</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-6.3190673802757233</v>
+        <v>-6.315160877668486</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-6.3190673802757233</v>
+        <v>-6.315160877668486</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-8.6301497560853804</v>
+        <v>-8.6248145221823158</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,7 +12429,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-824524.31610764388</v>
+        <v>-824014.58797898691</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1862C30-B757-4A16-A7B3-0AAF9FC4CF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{334B4887-99FC-4FCF-93A9-4364A41C527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4986,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-101.35836430055662</v>
+        <v>-101.39625724945169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10297,8 +10297,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12167,17 +12167,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8659839955064117E-3</v>
+        <v>-9.8622969636821337E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8659839955064117E-3</v>
+        <v>-9.8622969636821337E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8659839955064117E-3</v>
+        <v>-9.8622969636821337E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12288,14 +12288,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.702044221517314</v>
+        <v>-12.697533732195465</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.702044221517314</v>
+        <v>-12.697533732195465</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12366,21 +12366,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-824014.58797898691</v>
+        <v>-823721.98082573595</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-6.315160877668486</v>
+        <v>-6.3129183673128519</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-6.315160877668486</v>
+        <v>-6.3129183673128519</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-8.6248145221823158</v>
+        <v>-8.6217518550141961</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12389,7 +12389,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12428,15 +12428,15 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>-824014.58797898691</v>
+        <f>C97+C98+$C$99</f>
+        <v>-823721.98082573595</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
+        <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
       <c r="F100" s="109">
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
+        <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
       <c r="K100" s="24"/>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334B4887-99FC-4FCF-93A9-4364A41C527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E664BF28-2239-4751-9F7C-DECB5A6732DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>81.849999999999994</v>
+        <v>84</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10679.948671549999</v>
+        <v>10960.484892</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4986,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-101.39625724945169</v>
+        <v>-104.02552478562805</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12167,17 +12167,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8622969636821337E-3</v>
+        <v>-9.6130252845228418E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8622969636821337E-3</v>
+        <v>-9.6130252845228418E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8622969636821337E-3</v>
+        <v>-9.6130252845228418E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12288,14 +12288,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.697533732195465</v>
+        <v>-12.717700582331245</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.697533732195465</v>
+        <v>-12.717700582331245</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12366,21 +12366,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-823721.98082573595</v>
+        <v>-825030.25675484329</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-6.3129183673128519</v>
+        <v>-6.3229448560246082</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-6.3129183673128519</v>
+        <v>-6.3229448560246082</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-8.6217518550141961</v>
+        <v>-8.6354453470918813</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-823721.98082573595</v>
+        <v>-825030.25675484329</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E664BF28-2239-4751-9F7C-DECB5A6732DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92A1D79-77A7-4E51-8EC1-D8AADAAF0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>84</v>
+        <v>84.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10960.484892</v>
+        <v>10999.629480899999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4986,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5032,10 +5032,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5082,7 +5082,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-104.02552478562805</v>
+        <v>-104.4067975273492</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12167,17 +12167,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.6130252845228418E-3</v>
+        <v>-9.5779204389259374E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.6130252845228418E-3</v>
+        <v>-9.5779204389259374E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.6130252845228418E-3</v>
+        <v>-9.5779204389259374E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12288,14 +12288,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.717700582331245</v>
+        <v>-11.614873519758717</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.717700582331245</v>
+        <v>-11.614873519758717</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12366,21 +12366,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-825030.25675484329</v>
+        <v>-753487.00184801815</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-6.3229448560246082</v>
+        <v>-5.7746448974561959</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-6.3229448560246082</v>
+        <v>-5.7746448974561959</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-8.6354453470918813</v>
+        <v>-7.6800763520841642</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-825030.25675484329</v>
+        <v>-753487.00184801815</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92A1D79-77A7-4E51-8EC1-D8AADAAF0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FDF506-F9D5-41B8-A8F6-5F4DB20B1A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4896,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>84.3</v>
+        <v>81.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4937,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10999.629480899999</v>
+        <v>10634.279984500001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4986,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5169,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-104.4067975273492</v>
+        <v>-101.03031355051478</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12167,17 +12178,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.5779204389259374E-3</v>
+        <v>-9.8980193652472813E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.5779204389259374E-3</v>
+        <v>-9.8980193652472813E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.5779204389259374E-3</v>
+        <v>-9.8980193652472813E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12288,14 +12299,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.614873519758717</v>
+        <v>-11.585630454571884</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.614873519758717</v>
+        <v>-11.585630454571884</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12366,21 +12377,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-753487.00184801815</v>
+        <v>-751589.92828324891</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7746448974561959</v>
+        <v>-5.7601059257764913</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7746448974561959</v>
+        <v>-5.7601059257764913</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6800763520841642</v>
+        <v>-7.6607400267232562</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12429,7 +12440,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-753487.00184801815</v>
+        <v>-751589.92828324891</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FDF506-F9D5-41B8-A8F6-5F4DB20B1A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2002BEED-E150-41C7-93CF-BDD31C130558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>130481963</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3707,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3724,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3847,7 +3872,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>2577476</v>
@@ -3867,7 +3892,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>549856</v>
@@ -3887,7 +3912,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3903,7 +3928,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>54645</v>
@@ -3923,7 +3948,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150"/>
       <c r="D30" s="150"/>
@@ -3939,7 +3964,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3955,7 +3980,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3971,7 +3996,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4003,7 +4028,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4019,7 +4044,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4051,7 +4076,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4099,7 +4124,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4115,7 +4140,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4131,7 +4156,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4147,7 +4172,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0</v>
@@ -4165,7 +4190,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4214,21 +4239,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4238,7 +4263,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4248,7 +4273,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4259,7 +4284,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4269,7 +4294,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4279,7 +4304,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4290,7 +4315,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4300,7 +4325,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4311,7 +4336,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4319,24 +4344,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4347,7 +4372,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4358,7 +4383,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4369,7 +4394,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4380,7 +4405,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4391,7 +4416,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4402,7 +4427,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4412,31 +4437,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4444,12 +4469,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4460,7 +4485,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4471,7 +4496,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4481,7 +4506,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4492,7 +4517,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4502,25 +4527,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4532,55 +4557,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4588,10 +4613,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4599,18 +4624,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4619,20 +4644,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4650,7 +4675,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4671,7 +4696,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4692,7 +4717,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4710,7 +4735,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4731,7 +4756,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4749,7 +4774,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4767,7 +4792,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4895,62 +4920,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>81.5</v>
+        <v>81.650000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>10634.279984500001</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>10653.85227895</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4973,16 +4998,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4997,7 +5022,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5007,40 +5032,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5053,29 +5078,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5085,12 +5110,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5100,29 +5125,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.8448760372568398</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5130,7 +5155,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5141,26 +5166,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5169,30 +5194,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-101.03031355051478</v>
+        <v>-101.2099471904618</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5201,14 +5226,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-4.3026634739724949E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5222,23 +5247,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5253,31 +5278,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="274">
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="274"/>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5287,25 +5312,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5315,7 +5340,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5325,14 +5350,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5342,7 +5367,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5357,14 +5382,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6317,12 +6342,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6349,16 +6374,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6376,7 +6401,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6409,7 +6434,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6420,7 +6445,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6572,7 +6597,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6623,7 +6648,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6674,7 +6699,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6725,7 +6750,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6776,7 +6801,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6827,7 +6852,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6878,7 +6903,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6929,7 +6954,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6980,7 +7005,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7031,7 +7056,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7082,7 +7107,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7133,7 +7158,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7184,7 +7209,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7235,7 +7260,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7286,7 +7311,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7337,7 +7362,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7388,7 +7413,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7439,7 +7464,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7490,7 +7515,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7643,7 +7668,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7694,7 +7719,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7796,7 +7821,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8000,7 +8025,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8051,7 +8076,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8102,7 +8127,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8153,7 +8178,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8204,7 +8229,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8255,7 +8280,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8273,7 +8298,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8324,7 +8349,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8375,7 +8400,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8426,7 +8451,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8477,7 +8502,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8528,7 +8553,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8579,7 +8604,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8630,7 +8655,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8647,50 +8672,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8699,10 +8724,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8750,167 +8775,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8918,112 +8944,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-0.41630479499017231</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-0.34164907260386312</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-0.41630479499017231</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.34164907260386312</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9586,7 +9802,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10269,6 +10487,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10308,8 +10527,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10327,7 +10546,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10342,7 +10561,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10356,7 +10575,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10366,7 +10585,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10384,10 +10603,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10396,12 +10615,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10411,7 +10631,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10421,8 +10641,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10434,7 +10655,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10452,7 +10673,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10471,32 +10692,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10513,7 +10734,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10524,7 +10745,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10541,7 +10762,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10552,7 +10773,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10569,7 +10790,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10580,7 +10801,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10597,7 +10818,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10608,7 +10829,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10625,7 +10846,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10635,7 +10856,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10657,7 +10878,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10679,7 +10900,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10700,7 +10921,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10725,7 +10946,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10752,7 +10973,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10773,7 +10994,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10790,7 +11011,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10802,13 +11023,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10830,7 +11051,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10850,7 +11071,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10859,7 +11080,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10879,7 +11100,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10892,7 +11113,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10912,7 +11133,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10958,7 +11179,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10967,7 +11188,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10983,7 +11204,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10993,7 +11214,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11010,7 +11231,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11020,7 +11241,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11037,7 +11258,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11047,7 +11268,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11067,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11077,7 +11298,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11094,7 +11315,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11104,7 +11325,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11130,7 +11351,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11157,7 +11378,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11184,7 +11405,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11205,7 +11426,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11226,7 +11447,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11247,7 +11468,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11268,7 +11489,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11285,7 +11506,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11303,7 +11524,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11322,7 +11543,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11341,7 +11562,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11358,7 +11579,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11371,7 +11592,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11388,7 +11609,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11401,7 +11622,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11418,7 +11639,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11445,7 +11666,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11461,14 +11682,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11485,7 +11706,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11515,7 +11736,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11526,14 +11747,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11541,30 +11762,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11581,11 +11802,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11595,7 +11816,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11616,7 +11837,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11637,7 +11858,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11658,7 +11879,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11673,7 +11894,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11704,11 +11925,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11718,7 +11939,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11739,7 +11960,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11754,7 +11975,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11776,21 +11997,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11800,23 +12021,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11837,7 +12058,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11867,7 +12088,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11888,7 +12109,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11918,7 +12139,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11948,7 +12169,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11979,7 +12200,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12006,12 +12227,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12041,7 +12262,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12071,7 +12292,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12101,7 +12322,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12122,7 +12343,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12153,7 +12374,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12174,28 +12395,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8980193652472813E-3</v>
+        <v>-9.8804517516262631E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8980193652472813E-3</v>
+        <v>-9.8804517516262631E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8980193652472813E-3</v>
+        <v>-9.8804517516262631E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12225,7 +12446,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12256,29 +12477,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12295,24 +12516,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.585630454571884</v>
+        <v>-11.587380898889172</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.585630454571884</v>
+        <v>-11.587380898889172</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12323,14 +12544,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12353,51 +12574,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-751589.92828324891</v>
+        <v>-751703.48415092949</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7601059257764913</v>
+        <v>-5.7609762059674825</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7601059257764913</v>
+        <v>-5.7609762059674825</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6607400267232562</v>
+        <v>-7.6618974690306541</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12415,7 +12636,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12436,11 +12657,11 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-751589.92828324891</v>
+        <v>-751703.48415092949</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12470,34 +12691,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12531,34 +12752,34 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12591,7 +12812,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12600,6 +12821,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2002BEED-E150-41C7-93CF-BDD31C130558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F5EBF0-AE27-4A97-BA83-2972C16E3F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.8448760372568398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18023840312844694</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7912194354438221E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.3026634739724949E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3675,7 +2838,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3684,15 +2847,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>130481963</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3928,7 +3091,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>54645</v>
@@ -4044,7 +3207,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4140,7 +3303,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4172,7 +3335,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0</v>
@@ -4190,7 +3353,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4239,13 +3402,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4304,7 +3467,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4315,7 +3478,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4416,7 +3579,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4427,7 +3590,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4587,7 +3750,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4605,7 +3768,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4613,10 +3776,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4626,16 +3789,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4644,10 +3807,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4696,7 +3859,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4717,7 +3880,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4735,7 +3898,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4774,7 +3937,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4792,7 +3955,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4878,8 +4041,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4920,62 +4083,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>81.650000000000006</v>
+        <v>81.45</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>10653.85227895</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>10627.75588635</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4998,16 +4161,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5022,7 +4185,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5032,40 +4195,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5078,29 +4241,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5110,12 +4273,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5123,9 +4286,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5133,59 +4296,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.8448760372568398</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.18023840312844694</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>-2.5114440385286728E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5194,30 +4357,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-101.2099471904618</v>
+        <v>-100.97148018854907</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5226,14 +4389,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>-4.3026634739724949E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5247,23 +4410,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5278,31 +4441,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="278">
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="278"/>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5312,7 +4475,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5323,14 +4486,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5340,7 +4503,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5350,14 +4513,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5367,7 +4530,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5382,14 +4545,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6333,7 +5496,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6347,7 +5509,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6374,16 +5536,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6401,7 +5563,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6434,7 +5596,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6801,7 +5963,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6852,7 +6014,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6903,7 +6065,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6954,7 +6116,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7056,7 +6218,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7209,7 +6371,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7719,7 +6881,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8229,7 +7391,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8280,7 +7442,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8349,7 +7511,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8553,7 +7715,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8655,7 +7817,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8673,14 +7835,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8724,7 +7886,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8775,7 +7937,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8826,7 +7988,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8877,7 +8039,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8894,7 +8056,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9094,7 +8256,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9144,7 +8306,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9194,7 +8356,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10698,7 +9860,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10856,7 +10018,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11268,7 +10430,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11736,7 +10898,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11750,11 +10912,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11765,11 +10927,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11781,11 +10943,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11802,7 +10964,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11879,7 +11041,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11925,7 +11087,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11960,7 +11122,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11999,19 +11161,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12021,18 +11183,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12109,7 +11271,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12139,7 +11301,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12169,7 +11331,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12232,7 +11394,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12262,7 +11424,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12343,7 +11505,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12374,7 +11536,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12395,28 +11557,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8804517516262631E-3</v>
+        <v>-9.9037866745406745E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8804517516262631E-3</v>
+        <v>-9.9037866745406745E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8804517516262631E-3</v>
+        <v>-9.9037866745406745E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12446,7 +11608,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12482,24 +11644,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12516,24 +11678,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.587380898889172</v>
+        <v>-11.584931784152603</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.587380898889172</v>
+        <v>-11.584931784152603</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12544,14 +11706,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12574,14 +11736,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12598,21 +11760,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-751703.48415092949</v>
+        <v>-751544.60371913644</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7609762059674825</v>
+        <v>-5.7597585630983836</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7609762059674825</v>
+        <v>-5.7597585630983836</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6618974690306541</v>
+        <v>-7.6602780464738895</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12661,7 +11823,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-751703.48415092949</v>
+        <v>-751544.60371913644</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12691,21 +11853,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12718,7 +11880,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12752,21 +11914,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12779,7 +11941,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12812,7 +11974,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F5EBF0-AE27-4A97-BA83-2972C16E3F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71033CD-13D3-4AC1-A619-798C0E7A74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -2838,7 +2858,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2847,15 +2867,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>130481963</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3091,7 +3111,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>54645</v>
@@ -3173,9 +3193,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3191,7 +3211,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3207,7 +3227,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3222,10 +3242,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3237,9 +3258,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3286,10 +3307,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3303,9 +3325,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3319,7 +3341,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3335,7 +3357,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0</v>
@@ -3353,7 +3375,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3402,13 +3424,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3426,7 +3448,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3436,7 +3458,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3467,7 +3489,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3478,7 +3500,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3512,7 +3534,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3579,7 +3601,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3590,7 +3612,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3637,7 +3659,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3750,7 +3772,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3768,7 +3790,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3776,10 +3798,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3787,7 +3809,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3795,10 +3817,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3820,7 +3842,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3859,7 +3881,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3880,7 +3902,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3898,7 +3920,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3937,7 +3959,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3955,7 +3977,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3978,28 +4000,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4041,8 +4068,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4083,7 +4110,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4095,15 +4122,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>81.45</v>
+        <v>81.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4123,7 +4150,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4136,7 +4163,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>10627.75588635</v>
+        <v>10634.279984500001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4170,7 +4197,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4185,7 +4212,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4195,40 +4222,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4241,29 +4268,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4273,12 +4300,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4288,7 +4315,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4296,21 +4323,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4318,10 +4345,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4329,58 +4356,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>-2.5114440385286728E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-100.97148018854907</v>
+        <v>-101.03976521463528</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4389,14 +4416,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -4410,23 +4437,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -4451,21 +4478,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4475,25 +4502,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4503,7 +4530,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4513,14 +4540,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4530,7 +4557,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4545,14 +4572,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5452,27 +5479,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5504,12 +5531,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5536,16 +5563,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5563,7 +5590,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5596,7 +5623,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5607,7 +5634,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5963,7 +5990,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6014,7 +6041,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6065,7 +6092,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6116,7 +6143,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6218,7 +6245,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6371,7 +6398,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6626,7 +6653,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6677,7 +6704,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6731,15 +6758,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6779,50 +6806,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6830,50 +6857,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6881,101 +6908,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6983,101 +7010,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7085,50 +7112,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7136,50 +7163,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7187,50 +7214,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7238,272 +7265,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.8448760372568398</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.87913483297860395</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.18023840312844694</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.19555035186751313</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.8448760372568398</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.87913483297860395</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7511,50 +7538,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.18023840312844694</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.19555035186751313</v>
+        <f t="shared" si="37"/>
+        <v>3.8757633775718295E-2</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7562,50 +7589,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7613,50 +7640,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>1.7912194354438221E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.8757633775718295E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7664,221 +7691,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>-4.3026634739724949E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-0.11344281862183533</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>-4.3026634739724949E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-0.11344281862183533</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7886,522 +7913,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-0.41630479499017231</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.34164907260386312</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-0.41630479499017231</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-0.34164907260386312</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8961,12 +8892,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9648,27 +9575,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9860,7 +9790,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9907,7 +9837,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9935,7 +9865,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10018,7 +9948,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10040,7 +9970,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10108,7 +10038,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10430,7 +10360,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10567,7 +10497,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10898,7 +10828,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10964,7 +10894,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -10999,7 +10929,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11020,7 +10950,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11041,7 +10971,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11056,7 +10986,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11087,7 +11017,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11101,7 +11031,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11122,7 +11052,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11137,7 +11067,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11159,7 +11089,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11167,11 +11097,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11199,7 +11129,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11271,7 +11201,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11301,7 +11231,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11331,7 +11261,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11389,12 +11319,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11424,7 +11354,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11454,7 +11384,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11505,7 +11435,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11536,7 +11466,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11557,28 +11487,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.9037866745406745E-3</v>
+        <v>-9.8970934648921101E-3</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.9037866745406745E-3</v>
+        <v>-9.8970934648921101E-3</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.9037866745406745E-3</v>
+        <v>-9.8970934648921101E-3</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11608,7 +11538,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11639,27 +11569,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11678,24 +11608,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.584931784152603</v>
+        <v>-11.58460085524462</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.584931784152603</v>
+        <v>-11.58460085524462</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11706,14 +11636,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -11736,14 +11666,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11756,31 +11686,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-751544.60371913644</v>
+        <v>-751523.13550165854</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7597585630983836</v>
+        <v>-5.7595940329442969</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7597585630983836</v>
+        <v>-5.7595940329442969</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6602780464738895</v>
+        <v>-7.6600592271061112</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11798,7 +11728,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11823,7 +11753,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-751544.60371913644</v>
+        <v>-751523.13550165854</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11853,21 +11783,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11880,7 +11810,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -11914,21 +11844,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11941,7 +11871,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -11974,7 +11904,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71033CD-13D3-4AC1-A619-798C0E7A74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6764FBDA-E150-4EE7-B6CB-9012BDB41CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>130481963</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>271</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,399 +3045,403 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>3050715</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>2020789</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2577476</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>1776546</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>549856</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>395166</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>54645</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>78321</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
-        <v>0</v>
-      </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="C44" s="247">
+        <v>0</v>
+      </c>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152" t="str">
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3500,7 +3512,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3528,7 +3540,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3540,7 +3552,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3559,8 +3571,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3612,7 +3624,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3628,7 +3640,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3640,7 +3652,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3653,7 +3665,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3701,14 +3713,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3732,7 +3744,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3762,19 +3774,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3790,20 +3802,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3833,10 +3845,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3848,12 +3860,12 @@
         <f>C25</f>
         <v>3050715</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>3050715</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>3050715</v>
       </c>
@@ -3866,75 +3878,75 @@
         <f>C26</f>
         <v>2577476</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>2577476</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2577476</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>549856</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>549856</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>549856</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>54645</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>54645</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3947,12 +3959,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3965,12 +3977,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -3979,16 +3991,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4069,7 +4081,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4121,11 +4133,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>81.5</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>80.5</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4163,7 +4175,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>10634.279984500001</v>
+        <v>10503.798021500001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4173,11 +4185,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4199,11 +4211,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4211,8 +4223,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4221,10 +4233,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4232,7 +4244,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4240,13 +4252,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4255,12 +4267,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4270,7 +4282,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4281,7 +4293,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4289,13 +4301,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4305,49 +4317,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4355,77 +4367,77 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-101.03976521463528</v>
+        <v>-99.880327288828468</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4444,10 +4456,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4455,16 +4467,16 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>0</v>
       </c>
-      <c r="D29" s="129">
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
         <v>0</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
@@ -4478,23 +4490,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4502,9 +4514,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4512,17 +4524,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>Strongly disagree</v>
       </c>
@@ -4530,26 +4542,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4557,9 +4569,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4572,16 +4584,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5533,10 +5545,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5562,16 +5574,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5585,11 +5597,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5614,7 +5626,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5622,7 +5634,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5686,47 +5698,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3050715</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2020789</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5788,47 +5800,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2577476</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1776546</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5839,47 +5851,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>473239</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>244243</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5890,47 +5902,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>549856</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>395166</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5941,47 +5953,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -5990,49 +6002,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199" t="str">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="199" t="str">
+      <c r="D12" s="198" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6040,50 +6052,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>-7.4685184846117039E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6091,50 +6103,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-76617</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-150923</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6142,50 +6154,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.49234377795299589</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6196,47 +6208,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6245,49 +6257,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>54645</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>78321</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6298,47 +6310,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6349,47 +6361,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6398,49 +6410,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6451,47 +6463,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6502,47 +6514,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-131262</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-229244</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6553,47 +6565,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-8.5082113966376494E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6604,7 +6616,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-98446.5</v>
       </c>
@@ -6652,50 +6664,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.42741358552459391</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6812,43 +6824,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6863,43 +6875,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6908,49 +6920,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6965,43 +6977,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7016,43 +7028,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7118,43 +7130,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7169,43 +7181,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7220,43 +7232,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7318,47 +7330,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7367,7 +7379,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7387,47 +7399,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.87913483297860395</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7436,49 +7448,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.19555035186751313</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7489,47 +7501,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7540,47 +7552,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>3.8757633775718295E-2</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7591,47 +7603,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7640,49 +7652,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7693,47 +7705,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-0.11344281862183533</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7742,9 +7754,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7759,50 +7773,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7811,49 +7825,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7862,49 +7876,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7913,49 +7927,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7964,7 +7978,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7981,49 +7995,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8033,47 +8047,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8083,47 +8097,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-0.41630479499017231</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-0.34164907260386312</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8133,47 +8147,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8181,149 +8195,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9619,8 +9633,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9656,8 +9670,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9669,8 +9683,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9680,8 +9694,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9768,11 +9782,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9815,7 +9829,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9843,7 +9857,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9871,7 +9885,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9899,7 +9913,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9912,7 +9926,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9927,7 +9941,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9954,7 +9968,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9976,7 +9990,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -9998,7 +10012,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10019,7 +10033,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10027,7 +10041,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10044,7 +10058,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10052,7 +10066,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10071,7 +10085,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10092,7 +10106,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10257,7 +10271,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10286,7 +10300,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10312,7 +10326,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10339,7 +10353,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10366,7 +10380,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10382,7 +10396,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10396,7 +10410,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10423,7 +10437,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10431,7 +10445,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10449,7 +10463,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10457,7 +10471,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10476,7 +10490,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10484,7 +10498,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10503,7 +10517,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10524,7 +10538,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10545,7 +10559,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10566,7 +10580,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10587,7 +10601,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10733,8 +10747,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10760,8 +10774,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10831,7 +10845,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10931,7 +10945,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10939,7 +10953,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10970,11 +10984,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11051,12 +11065,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11135,17 +11149,17 @@
         <f>Data!C6</f>
         <v>3050715</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>3050715</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>3050715</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11156,23 +11170,23 @@
         <f>Data!C8</f>
         <v>2577476</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2577476</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2577476</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.8448760372568398</v>
       </c>
@@ -11182,48 +11196,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>473239</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>473239</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>473239</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>549856</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>549856</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>549856</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.18023840312844694</v>
       </c>
@@ -11237,54 +11251,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>-76617</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>-76617</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>-76617</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
@@ -11298,55 +11312,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>54645</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>54645</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>54645</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>1.7912194354438221E-2</v>
       </c>
@@ -11354,29 +11368,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11386,27 +11400,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>-131262</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>-131262</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>-131262</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
@@ -11416,49 +11430,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>-3.226997605479371E-2</v>
       </c>
@@ -11468,69 +11482,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8970934648921101E-3</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>-1.0011981609834483E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8970934648921101E-3</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>-1.0011981609834483E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.8970934648921101E-3</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>-1.0011981609834483E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -11538,23 +11552,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="209"/>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11576,7 +11590,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11599,27 +11613,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.58460085524462</v>
+        <v>-11.568571451133282</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.58460085524462</v>
+        <v>-11.568571451133282</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11627,25 +11641,25 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11661,25 +11675,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11690,21 +11704,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-751523.13550165854</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>-750483.26643853739</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7595940329442969</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>-5.7516245861394451</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7595940329442969</v>
-      </c>
-      <c r="I97" s="123">
+        <v>-5.7516245861394451</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6600592271061112</v>
+        <v>-7.6494601407498051</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11716,14 +11730,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11734,17 +11748,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11753,7 +11767,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-751523.13550165854</v>
+        <v>-750483.26643853739</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11785,25 +11799,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11820,7 +11834,7 @@
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="123">
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
@@ -11828,7 +11842,7 @@
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="123">
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11846,25 +11860,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11881,7 +11895,7 @@
         <f>(D100+D103)/2</f>
         <v>0</v>
       </c>
-      <c r="E106" s="123">
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
         <v>0</v>
       </c>
@@ -11889,11 +11903,11 @@
         <f>(F100+F103)/2</f>
         <v>0</v>
       </c>
-      <c r="H106" s="123">
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="I106" s="123">
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
         <v>0</v>
       </c>
@@ -11906,14 +11920,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6764FBDA-E150-4EE7-B6CB-9012BDB41CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A79C19-71FB-49EC-80E8-BF205BB765B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3253,9 +3253,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3319,9 +3317,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3337,9 +3333,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -4134,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>80.5</v>
+        <v>80.45</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4175,7 +4169,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>10503.798021500001</v>
+        <v>10497.27392335</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4224,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4407,7 +4401,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-99.880327288828468</v>
+        <v>-99.82140517932929</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11505,17 +11499,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0011981609834483E-2</v>
+        <v>-1.001789143524376E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0011981609834483E-2</v>
+        <v>-1.001789143524376E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0011981609834483E-2</v>
+        <v>-1.001789143524376E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11626,14 +11620,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.568571451133282</v>
+        <v>-11.567865120164335</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.568571451133282</v>
+        <v>-11.567865120164335</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11704,21 +11698,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-750483.26643853739</v>
+        <v>-750437.44491467846</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7516245861394451</v>
+        <v>-5.7512734148142641</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7516245861394451</v>
+        <v>-5.7512734148142641</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6494601407498051</v>
+        <v>-7.6489930951326377</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11767,7 +11761,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-750483.26643853739</v>
+        <v>-750437.44491467846</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A79C19-71FB-49EC-80E8-BF205BB765B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75FEB76B-DA6D-477A-B9DD-3F33F75AADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>130481963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>130481963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>273</v>
+      <c r="C19" s="237" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,791 +3036,792 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>3050715</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>2020789</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>2577476</v>
+      </c>
+      <c r="D26" s="148">
+        <v>1776546</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>549856</v>
+      </c>
+      <c r="D27" s="148">
+        <v>395166</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>2577476</v>
-      </c>
-      <c r="D26" s="149">
-        <v>1776546</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>54645</v>
+      </c>
+      <c r="D29" s="148">
+        <v>78321</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>549856</v>
-      </c>
-      <c r="D27" s="149">
-        <v>395166</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>54645</v>
-      </c>
-      <c r="D29" s="149">
-        <v>78321</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
-        <v>0</v>
-      </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
+        <v>0</v>
+      </c>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="151" t="str">
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3835,166 +3830,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>3050715</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>3050715</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>3050715</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2577476</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>2577476</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>2577476</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>549856</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>549856</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>549856</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>54645</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>54645</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4007,32 +4002,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4091,13 +4086,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4108,82 +4103,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1405.HK : 達勢股份</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>80.45</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="G3" s="130">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>10497.27392335</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>10582.0871993</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4194,31 +4189,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4227,211 +4222,211 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-99.82140517932929</v>
+        <v>-100.64990293113782</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4439,68 +4434,68 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>0</v>
       </c>
-      <c r="D29" s="128">
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="286">
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="286"/>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4508,9 +4503,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4518,17 +4513,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>Strongly disagree</v>
       </c>
@@ -4536,26 +4531,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4563,9 +4558,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4578,16 +4573,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5539,10 +5534,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5568,59 +5563,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>-76617</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5628,19 +5623,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5689,928 +5684,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3050715</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2020789</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.50966528420334822</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2577476</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1776546</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>473239</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>244243</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>549856</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>395166</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198" t="str">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="D12" s="198" t="str">
+      <c r="D12" s="196" t="str">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>-7.4685184846117039E-2</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-76617</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-150923</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.49234377795299589</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>54645</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>78321</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-131262</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-229244</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-8.5082113966376494E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-98446.5</v>
       </c>
@@ -6654,63 +6649,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.42741358552459391</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6756,11 +6751,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6807,266 +6802,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7113,165 +7108,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7317,63 +7312,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7386,372 +7381,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.87913483297860395</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.19555035186751313</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>3.8757633775718295E-2</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-0.11344281862183533</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7763,216 +7758,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7988,350 +7983,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-0.41630479499017231</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-0.34164907260386312</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9610,7 +9605,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9628,7 +9623,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9646,25 +9641,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9672,12 +9667,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9685,28 +9680,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9719,7 +9714,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9728,16 +9723,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9745,7 +9740,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9755,287 +9750,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10046,21 +10041,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10073,45 +10068,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10119,17 +10114,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10139,19 +10134,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10161,17 +10156,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10180,7 +10175,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10190,17 +10185,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10213,7 +10208,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10223,17 +10218,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10260,12 +10255,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10275,171 +10270,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10447,25 +10442,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10473,26 +10468,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10500,113 +10495,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10614,17 +10609,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10634,16 +10629,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10653,16 +10648,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10672,14 +10667,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10692,7 +10687,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10702,14 +10697,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10722,13 +10717,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10736,12 +10731,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10752,63 +10747,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10816,45 +10811,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10862,61 +10857,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10930,35 +10925,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10972,29 +10967,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11008,9 +11003,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11018,28 +11013,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11053,29 +11048,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11089,29 +11084,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11121,66 +11116,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>3050715</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>3050715</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>3050715</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>2577476</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>2577476</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.8448760372568398</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>2577476</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.8448760372568398</v>
       </c>
@@ -11188,50 +11183,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>473239</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>473239</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>473239</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>549856</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>549856</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.18023840312844694</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>549856</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.18023840312844694</v>
       </c>
@@ -11239,60 +11234,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>-76617</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>-76617</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>-76617</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>-2.5114440385286728E-2</v>
       </c>
@@ -11300,61 +11295,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>54645</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>54645</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>54645</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>1.7912194354438221E-2</v>
       </c>
@@ -11362,59 +11357,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>-131262</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>-131262</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>-131262</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>-4.3026634739724949E-2</v>
       </c>
@@ -11422,184 +11417,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>-3.226997605479371E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>-98446.5</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>-3.226997605479371E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.75448359096191708</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.001789143524376E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>-9.9354293534110547E-3</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.001789143524376E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>-9.9354293534110547E-3</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.001789143524376E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>-9.9354293534110547E-3</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="206"/>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11607,53 +11602,53 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.567865120164335</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>-11.570155858677282</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.567865120164335</v>
+        <v>-11.570155858677282</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11665,121 +11660,121 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-750437.44491467846</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>-750586.05106964032</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7512734148142641</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>-5.7524123167095533</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7512734148142641</v>
-      </c>
-      <c r="I97" s="122">
+        <v>-5.7524123167095533</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6489930951326377</v>
+        <v>-7.6505077949399292</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-750437.44491467846</v>
-      </c>
-      <c r="D100" s="109">
+        <v>-750586.05106964032</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
         <v>0</v>
       </c>
-      <c r="H100" s="109">
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>0</v>
       </c>
-      <c r="I100" s="109">
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
@@ -11791,56 +11786,56 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
         <v>0</v>
       </c>
-      <c r="D103" s="109">
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="122">
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="109">
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="122">
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
-      <c r="I103" s="109">
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11852,56 +11847,56 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
         <v>0</v>
       </c>
-      <c r="D106" s="109">
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
         <v>0</v>
       </c>
-      <c r="E106" s="122">
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
         <v>0</v>
       </c>
-      <c r="F106" s="109">
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
         <v>0</v>
       </c>
-      <c r="H106" s="122">
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="I106" s="122">
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
         <v>0</v>
       </c>
@@ -11912,15 +11907,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75FEB76B-DA6D-477A-B9DD-3F33F75AADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0D2E93-9D38-47CF-8826-76F0ED9D39CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -2946,7 +2963,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2955,7 +2972,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3812,11 +3829,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3830,10 +3847,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4055,8 +4072,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4069,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4113,60 +4133,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>81.099999999999994</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>10582.0871993</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>10484.225727049999</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4189,11 +4209,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4213,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4334,7 +4354,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4346,20 +4366,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>-2.5114440385286728E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4368,12 +4388,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>-2.5114440385286728E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4384,10 +4404,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.7912194354438221E-2</v>
       </c>
@@ -4396,7 +4416,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-100.64990293113782</v>
+        <v>-99.774942736967645</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4447,10 +4467,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4469,11 +4489,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="285">
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="285"/>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5504,7 +5524,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7745,7 +7765,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9672,7 +9692,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10719,7 +10739,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10736,7 +10756,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10845,11 +10865,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10860,11 +10880,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10876,11 +10896,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11094,19 +11114,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11116,18 +11136,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11494,17 +11514,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.9354293534110547E-3</v>
+        <v>-1.0022556491325248E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.9354293534110547E-3</v>
+        <v>-1.0022556491325248E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.9354293534110547E-3</v>
+        <v>-1.0022556491325248E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11586,15 +11606,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11615,14 +11635,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.570155858677282</v>
+        <v>-11.558593971081145</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.570155858677282</v>
+        <v>-11.558593971081145</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11693,21 +11713,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-750586.05106964032</v>
+        <v>-749836.00140222907</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7524123167095533</v>
+        <v>-5.7466640151806194</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7524123167095533</v>
+        <v>-5.7466640151806194</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6505077949399292</v>
+        <v>-7.6428627543493892</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11756,7 +11776,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-750586.05106964032</v>
+        <v>-749836.00140222907</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0D2E93-9D38-47CF-8826-76F0ED9D39CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6873C77-AE18-4BAF-8360-C177DAE56D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>80.349999999999994</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>10484.225727049999</v>
+        <v>10425.508843700001</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4233,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-99.774942736967645</v>
+        <v>-99.374208910241649</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9643,7 +9643,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11514,17 +11514,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0022556491325248E-2</v>
+        <v>-1.0062973189585196E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0022556491325248E-2</v>
+        <v>-1.0062973189585196E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0022556491325248E-2</v>
+        <v>-1.0062973189585196E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11635,14 +11635,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.558593971081145</v>
+        <v>-11.537854425589863</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.558593971081145</v>
+        <v>-11.537854425589863</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11713,21 +11713,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-749836.00140222907</v>
+        <v>-748490.57323847571</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7466640151806194</v>
+        <v>-5.736352795661694</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7466640151806194</v>
+        <v>-5.736352795661694</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6428627543493892</v>
+        <v>-7.6291491919408445</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11754,7 +11754,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-749836.00140222907</v>
+        <v>-748490.57323847571</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D361F4-7C11-4F21-A699-8EABE0D1C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6E3C41-433F-44AD-8094-8E4EA02B9CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>79.55</v>
+        <v>79.05</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>10379.84015665</v>
+        <v>10314.599175150001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4446,7 +4446,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4577,7 +4577,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-99.10335244165077</v>
+        <v>-98.486625105507116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11746,17 +11746,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0090476006740252E-2</v>
+        <v>-1.0153662986509247E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0090476006740252E-2</v>
+        <v>-1.0153662986509247E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0090476006740252E-2</v>
+        <v>-1.0153662986509247E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11860,21 +11860,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.753100868227017</v>
+        <v>-11.512711921401456</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.753100868227017</v>
+        <v>-11.512711921401456</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11945,21 +11945,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1008345.6382827425</v>
+        <v>-746859.51371228753</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-7.7278546022697601</v>
+        <v>-5.7238525275120784</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-7.7278546022697601</v>
+        <v>-5.7238525275120784</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-9.1698682316399509</v>
+        <v>-7.6125242711854808</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6E3C41-433F-44AD-8094-8E4EA02B9CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF679FD9-F3FF-4A57-8D0B-B4EE438F32C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4261,7 +4262,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4284,6 +4285,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4302,8 +4306,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4339,24 +4343,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>79.05</v>
+        <v>79.25</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4366,7 +4373,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
@@ -4395,11 +4402,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>10314.599175150001</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>10340.695567749999</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4422,11 +4429,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4494,10 +4501,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4544,7 +4551,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4634,7 +4641,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-98.486625105507116</v>
+        <v>-98.735800627595694</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4685,10 +4692,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4707,11 +4714,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="312">
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="312"/>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5693,15 +5700,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5729,7 +5737,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11746,17 +11754,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0153662986509247E-2</v>
+        <v>-1.0128038600423418E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0153662986509247E-2</v>
+        <v>-1.0128038600423418E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0153662986509247E-2</v>
+        <v>-1.0128038600423418E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11856,7 +11864,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11867,14 +11875,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.512711921401456</v>
+        <v>-12.608527158709455</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-11.512711921401456</v>
+        <v>-12.608527158709455</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11945,21 +11953,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-746859.51371228753</v>
+        <v>-817947.89330884221</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-5.7238525275120784</v>
+        <v>-6.26866636968699</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-5.7238525275120784</v>
+        <v>-6.26866636968699</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-7.6125242711854808</v>
+        <v>-8.561315505227963</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF679FD9-F3FF-4A57-8D0B-B4EE438F32C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EBBB6F-9884-47FF-B31A-C6FF07C001F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4343,21 +4343,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4373,40 +4373,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>10340.695567749999</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4429,11 +4429,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4584,7 +4584,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4692,10 +4692,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4714,11 +4714,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5701,15 +5701,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11082,7 +11082,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11093,11 +11093,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11109,11 +11109,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11868,21 +11868,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.608527158709455</v>
+        <v>-12.737533388542801</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.608527158709455</v>
+        <v>-12.737533388542801</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11953,21 +11953,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-817947.89330884221</v>
+        <v>-950264.39174537361</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-6.26866636968699</v>
+        <v>-7.2827260557489746</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-6.26866636968699</v>
+        <v>-7.2827260557489746</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-8.561315505227963</v>
+        <v>-9.3451494376298552</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F25AF20-124A-4A7A-931C-A17EB3300395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8A1F80-17D4-42AE-BD27-0A1415BB0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4369,27 +4369,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>79.25</v>
+        <v>74.25</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4399,7 +4399,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
@@ -4428,11 +4428,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>10340.695567749999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>9688.28575275</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4455,11 +4455,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4479,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-98.738891252429525</v>
+        <v>-92.456758926420463</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4718,10 +4718,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4740,11 +4740,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5727,15 +5727,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11882,17 +11882,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0127721582810405E-2</v>
+        <v>-1.0815866915644604E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0127721582810405E-2</v>
+        <v>-1.0815866915644604E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0127721582810405E-2</v>
+        <v>-1.0815866915644604E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12003,14 +12003,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.843293933081553</v>
+        <v>-12.814896660534883</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.843293933081553</v>
+        <v>-12.814896660534883</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12081,21 +12081,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-958154.49703194143</v>
+        <v>-956035.96151170786</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-7.343194990344692</v>
+        <v>-7.3269587576001438</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-7.343194990344692</v>
+        <v>-7.3269587576001438</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-9.4402044490545141</v>
+        <v>-9.4193316059947154</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/1405.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8A1F80-17D4-42AE-BD27-0A1415BB0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{443AC19E-9261-439B-867F-18BCC220A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4369,27 +4369,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>74.25</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4399,40 +4399,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>9688.28575275</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>9570.8519860500001</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4455,11 +4455,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4479,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-92.456758926420463</v>
+        <v>-91.590946746492023</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4718,10 +4718,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4740,11 +4740,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="314">
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="314"/>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5727,15 +5727,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11210,7 +11210,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11221,11 +11221,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11237,11 +11237,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11882,17 +11882,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0815866915644604E-2</v>
+        <v>-1.0918109655180527E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0815866915644604E-2</v>
+        <v>-1.0918109655180527E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0815866915644604E-2</v>
+        <v>-1.0918109655180527E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12003,14 +12003,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.814896660534883</v>
+        <v>-12.773953190280089</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-12.814896660534883</v>
+        <v>-12.773953190280089</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12081,21 +12081,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-956035.96151170786</v>
+        <v>-952981.43590845307</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-7.3269587576001438</v>
+        <v>-7.3035491955961236</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-7.3269587576001438</v>
+        <v>-7.3035491955961236</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-9.4193316059947154</v>
+        <v>-9.3892369330803582</v>
       </c>
       <c r="K97" s="75"/>
     </row>
